--- a/medicine/Enfance/Émission_pour_la_jeunesse/Émission_pour_la_jeunesse.xlsx
+++ b/medicine/Enfance/Émission_pour_la_jeunesse/Émission_pour_la_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mission_pour_la_jeunesse</t>
+          <t>Émission_pour_la_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une émission pour la jeunesse est une émission télévisée ou radiodiffusée de divertissement ou de culture générale destinée au jeune public.
 Au sein de ce type d'émission sont souvent présentés des séquences de divertissement (scénettes avec des marionnettes, chansons, jeux, informations, vulgarisation) ainsi que des séries ou des dessins animés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mission_pour_la_jeunesse</t>
+          <t>Émission_pour_la_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La catégorie des émissions pour enfants est presque aussi vieille que la télévision elle-même. L'heure des enfants de la BBC, diffusée au Royaume-Uni en 1946, est généralement considérée comme le premier programme télévisé destiné aux enfants[1].
-À la radio
-À la télévision</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La catégorie des émissions pour enfants est presque aussi vieille que la télévision elle-même. L'heure des enfants de la BBC, diffusée au Royaume-Uni en 1946, est généralement considérée comme le premier programme télévisé destiné aux enfants.
+</t>
         </is>
       </c>
     </row>
@@ -526,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mission_pour_la_jeunesse</t>
+          <t>Émission_pour_la_jeunesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +557,48 @@
           <t>Liste d'émissions télévisées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste non exhaustive d'émissions télévisées pour la jeunesse, parmi les plus connues.
-En France
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste non exhaustive d'émissions télévisées pour la jeunesse, parmi les plus connues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Émission_pour_la_jeunesse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mission_pour_la_jeunesse</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'émissions télévisées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1, rue Sésame
 Âge tendre et tête de bois
 Ca cartoon
@@ -575,38 +626,75 @@
 Vitamine
 Youpi ! L'école est finie
 Voir aussi la catégorie   Émission de télévision destinée à la jeunesse en France 
-Dans le reste du monde
-Sesame Street
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Émission_pour_la_jeunesse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89mission_pour_la_jeunesse</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'émissions télévisées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Dans le reste du monde</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sesame Street
 Le Muppet Show
 Histoire de la télévision jeunesse au Québec</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89mission_pour_la_jeunesse</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Émission_pour_la_jeunesse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89mission_pour_la_jeunesse</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste d'émissions radiodiffusées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La puce à l'oreille (Canada)</t>
         </is>
